--- a/2022-май-1.xlsx
+++ b/2022-май-1.xlsx
@@ -1010,6 +1010,8 @@
       <c r="R24" s="2"/>
     </row>
     <row r="25" spans="1:18">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1028,6 +1030,8 @@
       <c r="R25" s="2"/>
     </row>
     <row r="26" spans="1:18">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1046,6 +1050,8 @@
       <c r="R26" s="2"/>
     </row>
     <row r="27" spans="1:18">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1064,6 +1070,8 @@
       <c r="R27" s="2"/>
     </row>
     <row r="28" spans="1:18">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1082,6 +1090,8 @@
       <c r="R28" s="2"/>
     </row>
     <row r="29" spans="1:18">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1100,6 +1110,8 @@
       <c r="R29" s="2"/>
     </row>
     <row r="30" spans="1:18">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1131,7 +1143,7 @@
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A24:B30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
